--- a/HuggingFace/result/result_85_15_split/aug/convnext/val_ConvNext_L_eacc_224r_3e_8b_p0_r224_e3.xlsx
+++ b/HuggingFace/result/result_85_15_split/aug/convnext/val_ConvNext_L_eacc_224r_3e_8b_p0_r224_e3.xlsx
@@ -479,7 +479,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.946333492470387</v>
+        <v>0.9082038839483723</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -487,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9527258863896302</v>
+        <v>0.9216467463479415</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -495,7 +495,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9411456724904327</v>
+        <v>0.839947253956611</v>
       </c>
     </row>
   </sheetData>
@@ -549,34 +549,34 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>0.9733333333333334</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="C2">
+        <v>0.9240506329113924</v>
+      </c>
+      <c r="D2">
+        <v>0.8395061728395061</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="D2">
-        <v>0.8495575221238938</v>
-      </c>
-      <c r="E2">
-        <v>0.9891304347826086</v>
-      </c>
       <c r="F2">
-        <v>0.8507462686567164</v>
+        <v>0.8513513513513513</v>
       </c>
       <c r="G2">
-        <v>0.9615668883961567</v>
+        <v>0.9470644850818094</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0.9527258863896302</v>
+        <v>0.9216467463479415</v>
       </c>
       <c r="J2">
-        <v>0.946333492470387</v>
+        <v>0.9082038839483723</v>
       </c>
       <c r="K2">
-        <v>0.9521692589882461</v>
+        <v>0.9198471067903787</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -584,34 +584,34 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="C3">
-        <v>0.9817351598173516</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="D3">
-        <v>0.8767123287671232</v>
+        <v>0.8242424242424242</v>
       </c>
       <c r="E3">
-        <v>0.9891304347826086</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="F3">
-        <v>0.7702702702702703</v>
+        <v>0.7544910179640718</v>
       </c>
       <c r="G3">
-        <v>0.9701715137956749</v>
+        <v>0.9781312127236581</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="I3">
-        <v>0.9527258863896302</v>
+        <v>0.9216467463479415</v>
       </c>
       <c r="J3">
-        <v>0.9411456724904327</v>
+        <v>0.839947253956611</v>
       </c>
       <c r="K3">
-        <v>0.9527258863896302</v>
+        <v>0.9216467463479415</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -619,34 +619,34 @@
         <v>14</v>
       </c>
       <c r="B4">
-        <v>0.9864864864864865</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="C4">
-        <v>0.9907834101382489</v>
+        <v>0.9299363057324842</v>
       </c>
       <c r="D4">
-        <v>0.8629213483146067</v>
+        <v>0.8318042813455657</v>
       </c>
       <c r="E4">
-        <v>0.9891304347826086</v>
+        <v>0.8750000000000001</v>
       </c>
       <c r="F4">
-        <v>0.8085106382978724</v>
+        <v>0.7999999999999999</v>
       </c>
       <c r="G4">
-        <v>0.9658500371195249</v>
+        <v>0.9623471882640586</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="I4">
-        <v>0.9527258863896302</v>
+        <v>0.9216467463479415</v>
       </c>
       <c r="J4">
-        <v>0.9433831935913355</v>
+        <v>0.8708785112552702</v>
       </c>
       <c r="K4">
-        <v>0.9522288006561672</v>
+        <v>0.9199471667784644</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -654,34 +654,34 @@
         <v>15</v>
       </c>
       <c r="B5">
-        <v>219</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>219</v>
+        <v>78</v>
       </c>
       <c r="D5">
-        <v>219</v>
+        <v>165</v>
       </c>
       <c r="E5">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="F5">
-        <v>222</v>
+        <v>167</v>
       </c>
       <c r="G5">
-        <v>1341</v>
+        <v>1006</v>
       </c>
       <c r="H5">
-        <v>219</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>0.9527258863896302</v>
+        <v>0.9216467463479415</v>
       </c>
       <c r="J5">
-        <v>2623</v>
+        <v>1506</v>
       </c>
       <c r="K5">
-        <v>2623</v>
+        <v>1506</v>
       </c>
     </row>
   </sheetData>
